--- a/data/trans_orig/CLASESOCIAL_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>208228</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>185169</v>
+        <v>184579</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>235544</v>
+        <v>233952</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2021795516194107</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1797903728099897</v>
+        <v>0.1792176278759787</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2287018971908378</v>
+        <v>0.2271570763718196</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>964</v>
@@ -765,19 +765,19 @@
         <v>983300</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>949235</v>
+        <v>951251</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1013033</v>
+        <v>1012453</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7483037711299368</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7223797438938599</v>
+        <v>0.7239134458152829</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7709308041661511</v>
+        <v>0.7704894774594089</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1170</v>
@@ -786,19 +786,19 @@
         <v>1191528</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1145329</v>
+        <v>1141035</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1238794</v>
+        <v>1235402</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5083411720872211</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4886312326760128</v>
+        <v>0.4867992909918508</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5285062385678044</v>
+        <v>0.5270588090448484</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>570338</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>539378</v>
+        <v>537347</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>601181</v>
+        <v>601884</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5537723569366529</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5237109691365621</v>
+        <v>0.5217389140741306</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.583718758949627</v>
+        <v>0.5844012650303594</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>243</v>
@@ -836,19 +836,19 @@
         <v>246550</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>218205</v>
+        <v>218987</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>276342</v>
+        <v>276030</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1876276228334134</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1660570636687022</v>
+        <v>0.1666517420782553</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2102997162775677</v>
+        <v>0.2100623774969737</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>819</v>
@@ -857,19 +857,19 @@
         <v>816888</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>775003</v>
+        <v>771876</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>859528</v>
+        <v>865083</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3485086804432819</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3306392306653818</v>
+        <v>0.329305172332528</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.366700014827748</v>
+        <v>0.36907014480387</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>150676</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>130039</v>
+        <v>127462</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>172929</v>
+        <v>174592</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1462993453516033</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1262617712612563</v>
+        <v>0.1237598029340774</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1679062005541543</v>
+        <v>0.1695203950416343</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>46</v>
@@ -907,19 +907,19 @@
         <v>47021</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35224</v>
+        <v>34471</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62054</v>
+        <v>61346</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03578374100156732</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02680580396033761</v>
+        <v>0.02623248282216272</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04722400811996744</v>
+        <v>0.0466847512804669</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>199</v>
@@ -928,19 +928,19 @@
         <v>197697</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>171034</v>
+        <v>172899</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>224021</v>
+        <v>223029</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08434341059171989</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07296800355646528</v>
+        <v>0.073763883986401</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09557384643862586</v>
+        <v>0.09515062918515324</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>40964</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28967</v>
+        <v>30092</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53584</v>
+        <v>53418</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03977403042433229</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02812574617734793</v>
+        <v>0.02921758339726671</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05202763238047622</v>
+        <v>0.05186668252815897</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -978,19 +978,19 @@
         <v>20116</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12488</v>
+        <v>11634</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30523</v>
+        <v>30832</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0153085609147174</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009503545431465622</v>
+        <v>0.008853317916076478</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02322821531526331</v>
+        <v>0.02346387702570548</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -999,19 +999,19 @@
         <v>61080</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47046</v>
+        <v>46461</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78752</v>
+        <v>78396</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02605849186557198</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02007136708487941</v>
+        <v>0.01982183279383185</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03359803070793221</v>
+        <v>0.03344586904479831</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>59709</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46434</v>
+        <v>45822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>77112</v>
+        <v>76931</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05797471566800074</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04508547872073354</v>
+        <v>0.04449065373486858</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0748718173668184</v>
+        <v>0.0746964794061267</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -1049,19 +1049,19 @@
         <v>17051</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10702</v>
+        <v>10499</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27319</v>
+        <v>27040</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01297630412036502</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008144668946491001</v>
+        <v>0.007989623110746594</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02079041777570929</v>
+        <v>0.02057764533257058</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>77</v>
@@ -1070,19 +1070,19 @@
         <v>76760</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>60221</v>
+        <v>60831</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>94969</v>
+        <v>95233</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03274824501220511</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02569225337066457</v>
+        <v>0.02595209573414867</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04051639660487627</v>
+        <v>0.04062941153527596</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>395969</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>362632</v>
+        <v>364635</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>433675</v>
+        <v>430950</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2341847823409375</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2144684684021868</v>
+        <v>0.2156533949328008</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.256484948297266</v>
+        <v>0.2548735868870434</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>749</v>
@@ -1195,19 +1195,19 @@
         <v>765280</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>724656</v>
+        <v>725219</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>804940</v>
+        <v>808778</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.482013337138531</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4564261850037029</v>
+        <v>0.4567809320566459</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.506993639559202</v>
+        <v>0.5094106473878947</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1145</v>
@@ -1216,19 +1216,19 @@
         <v>1161249</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1106253</v>
+        <v>1107404</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1216037</v>
+        <v>1213862</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3541997756988435</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3374250916449092</v>
+        <v>0.3377763430945604</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3709112316960305</v>
+        <v>0.3702477279603371</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>620215</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>580860</v>
+        <v>576283</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>662011</v>
+        <v>659278</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3668088059644307</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3435335423946225</v>
+        <v>0.3408265455403208</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3915278591814992</v>
+        <v>0.3899114313822715</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>408</v>
@@ -1266,19 +1266,19 @@
         <v>419828</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>385325</v>
+        <v>380409</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>457502</v>
+        <v>452236</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2644298116674365</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2426981371929049</v>
+        <v>0.2396015592591772</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2881586231025036</v>
+        <v>0.2848423002867053</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1009</v>
@@ -1287,19 +1287,19 @@
         <v>1040043</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>988878</v>
+        <v>984796</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1094767</v>
+        <v>1094683</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3172301190751095</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3016239173859396</v>
+        <v>0.3003789900606981</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3339217732337929</v>
+        <v>0.3338962770191771</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>340748</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>307769</v>
+        <v>309831</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>374624</v>
+        <v>374163</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2015259862997447</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1820215193237586</v>
+        <v>0.1832407386619344</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2215608965050107</v>
+        <v>0.2212883528299653</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>109</v>
@@ -1337,19 +1337,19 @@
         <v>111312</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>91916</v>
+        <v>92535</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>132666</v>
+        <v>133375</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07011013833728096</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05789382071671231</v>
+        <v>0.05828351287906596</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08355994752132585</v>
+        <v>0.08400640307802119</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>441</v>
@@ -1358,19 +1358,19 @@
         <v>452060</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>412761</v>
+        <v>415545</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>494753</v>
+        <v>491335</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1378857325234199</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1258989260517356</v>
+        <v>0.1267478612138976</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1509076842892332</v>
+        <v>0.1498651963551202</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>223446</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>196660</v>
+        <v>194295</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>256543</v>
+        <v>253862</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1321510523042191</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1163089925381735</v>
+        <v>0.1149104888543526</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1517249722667554</v>
+        <v>0.150139749722886</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>245</v>
@@ -1408,19 +1408,19 @@
         <v>246902</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>219676</v>
+        <v>219538</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>277510</v>
+        <v>278443</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1555118543250012</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1383634926089032</v>
+        <v>0.1382763014301305</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1747903399517202</v>
+        <v>0.1753777790642379</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>455</v>
@@ -1429,19 +1429,19 @@
         <v>470348</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>430954</v>
+        <v>429148</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>508672</v>
+        <v>508247</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1434638992102155</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1314480638446154</v>
+        <v>0.1308972534946821</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1551533211758822</v>
+        <v>0.1550236749716904</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>110462</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>90500</v>
+        <v>91356</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>131797</v>
+        <v>131606</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06532937309066801</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05352388610775398</v>
+        <v>0.05402968605621757</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07794765480523071</v>
+        <v>0.07783462759045402</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -1479,19 +1479,19 @@
         <v>44351</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>32788</v>
+        <v>32413</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60212</v>
+        <v>57880</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02793485853175041</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02065148480295083</v>
+        <v>0.02041543581204871</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0379246604859363</v>
+        <v>0.036455663406373</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>151</v>
@@ -1500,19 +1500,19 @@
         <v>154813</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>131352</v>
+        <v>129919</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>178712</v>
+        <v>181670</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04722047349241157</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04006454526257176</v>
+        <v>0.03962745817491831</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05451013636823994</v>
+        <v>0.05541235090866185</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>44559</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32551</v>
+        <v>32568</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57840</v>
+        <v>59929</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08109976017432038</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05924377189369889</v>
+        <v>0.05927574180146845</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1052712103881013</v>
+        <v>0.1090738553723117</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -1625,19 +1625,19 @@
         <v>68931</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55261</v>
+        <v>53805</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>85821</v>
+        <v>83510</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1446885213603009</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1159949603415786</v>
+        <v>0.1129384719419298</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1801401411359629</v>
+        <v>0.1752904248245444</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -1646,19 +1646,19 @@
         <v>113490</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>95976</v>
+        <v>94633</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>135673</v>
+        <v>135779</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1106308894217146</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09355759951274806</v>
+        <v>0.09224881383989238</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1322548170699872</v>
+        <v>0.1323577078751739</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>47781</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36034</v>
+        <v>36167</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62606</v>
+        <v>62137</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08696422276475237</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06558451507326671</v>
+        <v>0.06582548683567765</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1139453173459189</v>
+        <v>0.1130923878699867</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -1696,19 +1696,19 @@
         <v>47907</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35655</v>
+        <v>35854</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>63528</v>
+        <v>63253</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1005583684570393</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07484012673762075</v>
+        <v>0.07525889007719427</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1333467395946719</v>
+        <v>0.1327705634535067</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>90</v>
@@ -1717,19 +1717,19 @@
         <v>95688</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>79682</v>
+        <v>77216</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>117483</v>
+        <v>116626</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09327745274375282</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07767465197848565</v>
+        <v>0.07527020037856974</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1145225587406809</v>
+        <v>0.1136872576270859</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>50965</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38281</v>
+        <v>37501</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>68143</v>
+        <v>67451</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0927594314965816</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06967292966728429</v>
+        <v>0.06825356880582215</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1240237727894057</v>
+        <v>0.1227634157015151</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -1767,19 +1767,19 @@
         <v>9449</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4848</v>
+        <v>5171</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17181</v>
+        <v>17660</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01983318993438826</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01017601526615675</v>
+        <v>0.01085361728745012</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03606276747353689</v>
+        <v>0.03706875411984711</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>56</v>
@@ -1788,19 +1788,19 @@
         <v>60414</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>45927</v>
+        <v>45566</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>78478</v>
+        <v>78538</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05889190168575349</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04477022403781517</v>
+        <v>0.04441750808931057</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07650050466025558</v>
+        <v>0.0765594625558603</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>102524</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>86291</v>
+        <v>84718</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>123990</v>
+        <v>123101</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1865987936505903</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1570531577692883</v>
+        <v>0.1541907326266842</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2256675070827442</v>
+        <v>0.2240494610892294</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>99</v>
@@ -1838,19 +1838,19 @@
         <v>104847</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>88274</v>
+        <v>85738</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>123110</v>
+        <v>122864</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2200761470242465</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1852896201345772</v>
+        <v>0.1799651866929817</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.258411079719638</v>
+        <v>0.2578936881363583</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>197</v>
@@ -1859,19 +1859,19 @@
         <v>207371</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>183320</v>
+        <v>182853</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>236923</v>
+        <v>233808</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2021459442932433</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1787006961397112</v>
+        <v>0.1782457634168967</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2309535819025152</v>
+        <v>0.2279168849210928</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>303606</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>278227</v>
+        <v>280829</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>324838</v>
+        <v>328394</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5525777919137554</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5063857059011908</v>
+        <v>0.5111217562686864</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5912208741290544</v>
+        <v>0.59769220448544</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>237</v>
@@ -1909,19 +1909,19 @@
         <v>245278</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>223855</v>
+        <v>224141</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>267625</v>
+        <v>266958</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5148437732240251</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4698772068041479</v>
+        <v>0.4704774565666821</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5617510297762559</v>
+        <v>0.560350560688036</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>525</v>
@@ -1930,19 +1930,19 @@
         <v>548883</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>515382</v>
+        <v>517731</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>580077</v>
+        <v>581591</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5350538118555357</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5023969270300616</v>
+        <v>0.5046867708824385</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5654613657629424</v>
+        <v>0.5669376158956423</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>648756</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>602195</v>
+        <v>606639</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>691260</v>
+        <v>695937</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1983847212091555</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.184146777522632</v>
+        <v>0.1855057302283812</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2113822699321857</v>
+        <v>0.2128124386199147</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1777</v>
@@ -2055,19 +2055,19 @@
         <v>1817511</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1757984</v>
+        <v>1761370</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1875202</v>
+        <v>1878090</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5380239091029176</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.52040256512419</v>
+        <v>0.521404779100636</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5551016050407737</v>
+        <v>0.5559563848581744</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2423</v>
@@ -2076,19 +2076,19 @@
         <v>2466267</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2394650</v>
+        <v>2382493</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2544317</v>
+        <v>2546701</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3709613016211026</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3601890327768135</v>
+        <v>0.3583604102548092</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3827010289644281</v>
+        <v>0.3830597388307995</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>1238334</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1184453</v>
+        <v>1187668</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1292914</v>
+        <v>1296999</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3786735374054787</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3621968929453995</v>
+        <v>0.3631802343613117</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.395363478928649</v>
+        <v>0.3966128429429365</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>694</v>
@@ -2126,19 +2126,19 @@
         <v>714285</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>667761</v>
+        <v>663507</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>765305</v>
+        <v>760636</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2114443798158261</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1976720105631679</v>
+        <v>0.1964128973838788</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2265472407222019</v>
+        <v>0.2251653020781908</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1918</v>
@@ -2147,19 +2147,19 @@
         <v>1952620</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1877374</v>
+        <v>1883791</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2020753</v>
+        <v>2032151</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2937014929810288</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2823834888461302</v>
+        <v>0.2833486952446791</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3039496583396399</v>
+        <v>0.3056640736485651</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>542389</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>497538</v>
+        <v>500139</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>583059</v>
+        <v>587001</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1658586612114389</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1521435694489156</v>
+        <v>0.1529387358371154</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1782951467433853</v>
+        <v>0.1795005022165331</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>164</v>
@@ -2197,19 +2197,19 @@
         <v>167782</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>143649</v>
+        <v>144082</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>195089</v>
+        <v>194677</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04966720613773127</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04252333532440263</v>
+        <v>0.04265142330355835</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05775068249699374</v>
+        <v>0.05762866475493269</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>696</v>
@@ -2218,19 +2218,19 @@
         <v>710171</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>662895</v>
+        <v>659724</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>764623</v>
+        <v>764385</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1068197613893694</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09970873683464608</v>
+        <v>0.0992317676837436</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1150101231109863</v>
+        <v>0.1149743197103804</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>366934</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>329434</v>
+        <v>328264</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>402205</v>
+        <v>405808</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.112205753879732</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1007385357954809</v>
+        <v>0.1003808368423775</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1229912155169687</v>
+        <v>0.1240932094269304</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>363</v>
@@ -2268,19 +2268,19 @@
         <v>371865</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>338291</v>
+        <v>336154</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>412466</v>
+        <v>408665</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1100802864128136</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1001415546490606</v>
+        <v>0.09950913972909511</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1220990221125172</v>
+        <v>0.1209740530786943</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>713</v>
@@ -2289,19 +2289,19 @@
         <v>738799</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>689578</v>
+        <v>690485</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>788593</v>
+        <v>792597</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1111257668809044</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1037222759736088</v>
+        <v>0.1038586732222897</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1186154340965309</v>
+        <v>0.1192177924142108</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>473776</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>436848</v>
+        <v>431490</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>517742</v>
+        <v>515544</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1448773262941949</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1335849760670767</v>
+        <v>0.1319465029270636</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1583215880293292</v>
+        <v>0.1576496145042151</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>298</v>
@@ -2339,19 +2339,19 @@
         <v>306680</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>273179</v>
+        <v>274460</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>342484</v>
+        <v>341997</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09078421853071142</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08086717934426185</v>
+        <v>0.08124616787906883</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1013828426995631</v>
+        <v>0.1012387987283136</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>753</v>
@@ -2360,19 +2360,19 @@
         <v>780457</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>730146</v>
+        <v>730605</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>832971</v>
+        <v>834189</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1173916771275948</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.109824258788533</v>
+        <v>0.1098932960248461</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1252904875461933</v>
+        <v>0.1254736918579868</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>273770</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>242705</v>
+        <v>246200</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>301755</v>
+        <v>303561</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.281472707143935</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2495342010188225</v>
+        <v>0.2531276842834158</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3102456444792472</v>
+        <v>0.3121018302786969</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>943</v>
@@ -2724,19 +2724,19 @@
         <v>1013078</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>981912</v>
+        <v>979396</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1045208</v>
+        <v>1043761</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7584346796102106</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7351019534138806</v>
+        <v>0.7332185699813124</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7824883178818894</v>
+        <v>0.7814050737658242</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1198</v>
@@ -2745,19 +2745,19 @@
         <v>1286848</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1239339</v>
+        <v>1236448</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1335563</v>
+        <v>1338805</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5574675729683639</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5368866367579298</v>
+        <v>0.5356338378738973</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5785709984691633</v>
+        <v>0.5799753846346675</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>421450</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>389474</v>
+        <v>388769</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>453182</v>
+        <v>452241</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4333085545244762</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4004324460948923</v>
+        <v>0.3997082978741049</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4659333418148996</v>
+        <v>0.4649658968850827</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>164</v>
@@ -2795,19 +2795,19 @@
         <v>177052</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>151157</v>
+        <v>151110</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>204399</v>
+        <v>205174</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1325485493969724</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1131626964554706</v>
+        <v>0.1131278249957573</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1530217285645035</v>
+        <v>0.1536024598727597</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>559</v>
@@ -2816,19 +2816,19 @@
         <v>598502</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>557566</v>
+        <v>556601</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>640369</v>
+        <v>642354</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2592732601983877</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2415395769566825</v>
+        <v>0.2411217932129414</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.277410524830736</v>
+        <v>0.2782703817680671</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>207855</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>183887</v>
+        <v>180386</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>234996</v>
+        <v>236472</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2137030722148913</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1890611732699498</v>
+        <v>0.1854615724349236</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2416082449685566</v>
+        <v>0.2431256734262388</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>98</v>
@@ -2866,19 +2866,19 @@
         <v>103221</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>86277</v>
+        <v>83408</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>125016</v>
+        <v>125355</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07727599975241535</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06459084752339488</v>
+        <v>0.06244297668152844</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09359224633028548</v>
+        <v>0.09384615570940792</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>292</v>
@@ -2887,19 +2887,19 @@
         <v>311076</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>279701</v>
+        <v>275864</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>347676</v>
+        <v>343436</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1347593120563956</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1211675095312708</v>
+        <v>0.119505318450192</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1506144544508345</v>
+        <v>0.1487778170452632</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>28038</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18951</v>
+        <v>18789</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41469</v>
+        <v>41455</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02882693730986648</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01948392586403397</v>
+        <v>0.01931718072822724</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04263593219468027</v>
+        <v>0.04262106622832188</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -2937,19 +2937,19 @@
         <v>28967</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19807</v>
+        <v>18796</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41211</v>
+        <v>41993</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02168565393557279</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01482829958986063</v>
+        <v>0.01407177530351653</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03085240573008444</v>
+        <v>0.03143757391634608</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -2958,19 +2958,19 @@
         <v>57005</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42604</v>
+        <v>43255</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73185</v>
+        <v>75586</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02469462140109291</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01845623904478425</v>
+        <v>0.01873839682729183</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03170416757478451</v>
+        <v>0.03274401948210014</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>41520</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28555</v>
+        <v>30249</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>56860</v>
+        <v>58613</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04268872880683106</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02935808917009384</v>
+        <v>0.03109996071631303</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05846015646011928</v>
+        <v>0.06026188486426268</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -3008,19 +3008,19 @@
         <v>13431</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7329</v>
+        <v>7140</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21662</v>
+        <v>21569</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0100551173048289</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005486733122363466</v>
+        <v>0.005345535027226872</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01621735778987641</v>
+        <v>0.01614775569652867</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>50</v>
@@ -3029,19 +3029,19 @@
         <v>54952</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41842</v>
+        <v>40532</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>71724</v>
+        <v>71309</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02380523337575985</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01812607334541187</v>
+        <v>0.01755848190932634</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03107105562201464</v>
+        <v>0.03089151491237055</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>463651</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>427107</v>
+        <v>420959</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>503757</v>
+        <v>500294</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2363109085660966</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.217685507969163</v>
+        <v>0.2145516911699731</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2567519916778296</v>
+        <v>0.2549867150051973</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>730</v>
@@ -3154,19 +3154,19 @@
         <v>776350</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>732956</v>
+        <v>729801</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>816795</v>
+        <v>816655</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4432063843452506</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4184336794480109</v>
+        <v>0.4166326109325004</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4662961254299482</v>
+        <v>0.4662160815860467</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1187</v>
@@ -3175,19 +3175,19 @@
         <v>1240001</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1182538</v>
+        <v>1175711</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1296335</v>
+        <v>1298147</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3338985861262403</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3184255063263641</v>
+        <v>0.3165869716519698</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3490678500096794</v>
+        <v>0.3495557088903818</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>689381</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>646252</v>
+        <v>644629</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>730209</v>
+        <v>734358</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3513595038965886</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3293778022379132</v>
+        <v>0.3285506141237961</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3721686153275063</v>
+        <v>0.374282853451138</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>503</v>
@@ -3225,19 +3225,19 @@
         <v>541636</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>503933</v>
+        <v>506595</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>584466</v>
+        <v>583872</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3092120668669748</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2876876416607569</v>
+        <v>0.2892077756319451</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3336627370793054</v>
+        <v>0.3333237931946944</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1149</v>
@@ -3246,19 +3246,19 @@
         <v>1231017</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1171637</v>
+        <v>1171402</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1293943</v>
+        <v>1289900</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3314795597878889</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3154899283365623</v>
+        <v>0.3154268601281189</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3484237390720635</v>
+        <v>0.3473351023594249</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>386619</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>351579</v>
+        <v>355482</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>424358</v>
+        <v>427976</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1970495686364094</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1791906600185978</v>
+        <v>0.1811796798609122</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2162843672543325</v>
+        <v>0.2181283534100659</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>139</v>
@@ -3296,19 +3296,19 @@
         <v>148708</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>126624</v>
+        <v>124345</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>173779</v>
+        <v>173787</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08489536066817981</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07228775121319043</v>
+        <v>0.07098664289651928</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09920767866736305</v>
+        <v>0.09921268983690534</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>505</v>
@@ -3317,19 +3317,19 @@
         <v>535327</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>487971</v>
+        <v>487953</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>578939</v>
+        <v>579359</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1441490948923641</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1313974042389884</v>
+        <v>0.1313924992905685</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1558925664173153</v>
+        <v>0.156005784284888</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>272529</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>239703</v>
+        <v>239379</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>307155</v>
+        <v>304106</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1389011576175528</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1221702265120994</v>
+        <v>0.122004996213314</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.156549048346932</v>
+        <v>0.1549951132026766</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>193</v>
@@ -3367,19 +3367,19 @@
         <v>214979</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>186431</v>
+        <v>188112</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>244422</v>
+        <v>245743</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1227282304441095</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1064304696088186</v>
+        <v>0.107390223069139</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1395370019747768</v>
+        <v>0.1402912797980683</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>440</v>
@@ -3388,19 +3388,19 @@
         <v>487508</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>444304</v>
+        <v>446113</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>538382</v>
+        <v>534505</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1312727723362315</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1196389257516308</v>
+        <v>0.1201261049740053</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1449715819596472</v>
+        <v>0.1439277943700102</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>149858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>123625</v>
+        <v>126818</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>177162</v>
+        <v>178314</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07637886128335257</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0630086851901977</v>
+        <v>0.06463606543749258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09029484717901334</v>
+        <v>0.09088200370924744</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -3438,19 +3438,19 @@
         <v>69993</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55948</v>
+        <v>54717</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>89165</v>
+        <v>90606</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03995795767548527</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03193992265043277</v>
+        <v>0.03123707123023181</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05090290845874355</v>
+        <v>0.05172588632591019</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>202</v>
@@ -3459,19 +3459,19 @@
         <v>219851</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>189609</v>
+        <v>191697</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>250926</v>
+        <v>252997</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05919998685727515</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05105656191784298</v>
+        <v>0.05161882900974384</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0675676248434804</v>
+        <v>0.0681252973988709</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>40058</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28909</v>
+        <v>29541</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55318</v>
+        <v>54014</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08341126376588207</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06019765081073659</v>
+        <v>0.06151308853057694</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1151870883122385</v>
+        <v>0.1124717658330001</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>72</v>
@@ -3584,19 +3584,19 @@
         <v>79444</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>63358</v>
+        <v>63836</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97943</v>
+        <v>96701</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1732189412055468</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1381450023320843</v>
+        <v>0.1391890220683119</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2135551945083139</v>
+        <v>0.2108467373343896</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>112</v>
@@ -3605,19 +3605,19 @@
         <v>119501</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>99911</v>
+        <v>99225</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141683</v>
+        <v>143033</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1272815245522309</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1064162719534589</v>
+        <v>0.1056856758513764</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1509078526695719</v>
+        <v>0.1523449406766046</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>44433</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32732</v>
+        <v>31967</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>60646</v>
+        <v>60745</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09252163661887861</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06815795723328122</v>
+        <v>0.06656372110048622</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1262814503939307</v>
+        <v>0.1264881163085897</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -3655,19 +3655,19 @@
         <v>46861</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34268</v>
+        <v>33942</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62539</v>
+        <v>60473</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1021755914092639</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07471732823715369</v>
+        <v>0.0740077411276804</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1363611149876034</v>
+        <v>0.1318562166243046</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>81</v>
@@ -3676,19 +3676,19 @@
         <v>91294</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>71930</v>
+        <v>72471</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>110854</v>
+        <v>114520</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09723750865062508</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07661330201159701</v>
+        <v>0.07718947814091348</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1180709435413755</v>
+        <v>0.1219756602898802</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>33607</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22465</v>
+        <v>22188</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47144</v>
+        <v>46936</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06997831271089477</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04677927105757265</v>
+        <v>0.04620158202460219</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09816810592616479</v>
+        <v>0.09773460008206124</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -3726,19 +3726,19 @@
         <v>8200</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3546</v>
+        <v>3527</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16082</v>
+        <v>16234</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01787878106011249</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007732136036052565</v>
+        <v>0.007690388028946085</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03506460473658823</v>
+        <v>0.03539591690568621</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>37</v>
@@ -3747,19 +3747,19 @@
         <v>41806</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>29654</v>
+        <v>29803</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>58453</v>
+        <v>55916</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04452814958979642</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0315842396782588</v>
+        <v>0.03174388270228562</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06225903504466514</v>
+        <v>0.05955632985615197</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>116313</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>96439</v>
+        <v>97169</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>136786</v>
+        <v>137459</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2421967020147993</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2008135953411775</v>
+        <v>0.2023340314464181</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.284826815010859</v>
+        <v>0.2862282649939486</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>84</v>
@@ -3797,19 +3797,19 @@
         <v>93097</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>73929</v>
+        <v>75119</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>112523</v>
+        <v>111586</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2029884185595701</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.161195899942305</v>
+        <v>0.1637897425908975</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2453450356218274</v>
+        <v>0.2433020304924366</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>184</v>
@@ -3818,19 +3818,19 @@
         <v>209410</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>181720</v>
+        <v>181550</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>238688</v>
+        <v>236470</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2230438002896479</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1935508936234072</v>
+        <v>0.1933706483111394</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2542285786871066</v>
+        <v>0.2518659954352083</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>245832</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>222973</v>
+        <v>223069</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267464</v>
+        <v>270098</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5118920848895453</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4642928091701532</v>
+        <v>0.4644920505606544</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5569366449255827</v>
+        <v>0.5624199995792192</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -3868,19 +3868,19 @@
         <v>231030</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>209006</v>
+        <v>209885</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>253802</v>
+        <v>257101</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5037382677655067</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.45571645604577</v>
+        <v>0.4576339354098306</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5533899800153785</v>
+        <v>0.5605828332701269</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>435</v>
@@ -3889,19 +3889,19 @@
         <v>476862</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>444781</v>
+        <v>444486</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>507249</v>
+        <v>510703</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5079090169176996</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4737391781653466</v>
+        <v>0.4734249240552504</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5402744044474964</v>
+        <v>0.5439536388075985</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>777478</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>723482</v>
+        <v>731040</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>824247</v>
+        <v>831715</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2276714666801967</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2118597024171011</v>
+        <v>0.2140726685817418</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.241366865379804</v>
+        <v>0.2435539013263774</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1745</v>
@@ -4014,19 +4014,19 @@
         <v>1868871</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1808542</v>
+        <v>1808874</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1926083</v>
+        <v>1933806</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5270296635233676</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5100163959258379</v>
+        <v>0.5101102412383521</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5431636961861308</v>
+        <v>0.5453415812252401</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2497</v>
@@ -4035,19 +4035,19 @@
         <v>2646350</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2563288</v>
+        <v>2556307</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2725370</v>
+        <v>2724041</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3801702835952382</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3682377204879551</v>
+        <v>0.3672348699971394</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.391522156817574</v>
+        <v>0.3913312802621744</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>1155264</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1099589</v>
+        <v>1096250</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1211523</v>
+        <v>1216697</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3382996075089285</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3219960966835901</v>
+        <v>0.3210185336019318</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3547742437237723</v>
+        <v>0.3562894048859025</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>710</v>
@@ -4085,19 +4085,19 @@
         <v>765549</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>713311</v>
+        <v>718070</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>817244</v>
+        <v>818421</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2158879997995195</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2011566689825887</v>
+        <v>0.2024986942548633</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2304662192854947</v>
+        <v>0.2307981764463394</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1789</v>
@@ -4106,19 +4106,19 @@
         <v>1920812</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1846548</v>
+        <v>1842787</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1998053</v>
+        <v>1997758</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2759407826990212</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.265272055042356</v>
+        <v>0.2647317560060815</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.287036961459988</v>
+        <v>0.2869946087413388</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>628080</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>582266</v>
+        <v>583723</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>675289</v>
+        <v>676689</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1839226831995239</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1705068618661698</v>
+        <v>0.1709333777423249</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1977471125485561</v>
+        <v>0.1981571223275002</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>244</v>
@@ -4156,19 +4156,19 @@
         <v>260129</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>231532</v>
+        <v>228741</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>292677</v>
+        <v>290290</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07335759864707141</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06529286664382762</v>
+        <v>0.06450595654761519</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08253619298359512</v>
+        <v>0.08186292370003782</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>834</v>
@@ -4177,19 +4177,19 @@
         <v>888209</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>832371</v>
+        <v>833707</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>949550</v>
+        <v>950506</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1275987048880372</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1195771266944352</v>
+        <v>0.1197689656670403</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1364107362592926</v>
+        <v>0.136548106313426</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>416880</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>376398</v>
+        <v>379205</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>460478</v>
+        <v>463279</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1220764380515437</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1102217997017386</v>
+        <v>0.1110437504670319</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1348431728127131</v>
+        <v>0.1356634345183448</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>304</v>
@@ -4227,19 +4227,19 @@
         <v>337042</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>301644</v>
+        <v>301086</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>377687</v>
+        <v>376766</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09504734604070803</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08506497958073268</v>
+        <v>0.08490756786769707</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1065092964282037</v>
+        <v>0.1062497109667252</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>677</v>
@@ -4248,19 +4248,19 @@
         <v>753923</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>700312</v>
+        <v>699787</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>812718</v>
+        <v>809422</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1083072992826472</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1006056503886251</v>
+        <v>0.1005301911854098</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1167537493804411</v>
+        <v>0.1162801715040012</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>437211</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>398006</v>
+        <v>397928</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>480235</v>
+        <v>477821</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1280298045598071</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1165493167128387</v>
+        <v>0.1165264124045352</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1406288398055541</v>
+        <v>0.1399217588517548</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>283</v>
@@ -4298,19 +4298,19 @@
         <v>314454</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>282601</v>
+        <v>279094</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>352116</v>
+        <v>353111</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08867739198933347</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07969468580359683</v>
+        <v>0.07870565501627159</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09929818662486889</v>
+        <v>0.09957869589404775</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>687</v>
@@ -4319,19 +4319,19 @@
         <v>751665</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>699187</v>
+        <v>699525</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>806206</v>
+        <v>804317</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1079829295350562</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1004440745099405</v>
+        <v>0.1004926837369895</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1158182159992458</v>
+        <v>0.1155468454919746</v>
       </c>
     </row>
     <row r="27">
@@ -4662,19 +4662,19 @@
         <v>267857</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>241766</v>
+        <v>244055</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>294380</v>
+        <v>298280</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.355084332689903</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3204974551021476</v>
+        <v>0.3235312842167789</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3902453168479291</v>
+        <v>0.3954143005632917</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>711</v>
@@ -4683,19 +4683,19 @@
         <v>798066</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>772629</v>
+        <v>774511</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>824412</v>
+        <v>824021</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8078829516406864</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7821328394722937</v>
+        <v>0.7840381795079832</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.83455237556466</v>
+        <v>0.8341564166238318</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>982</v>
@@ -4704,19 +4704,19 @@
         <v>1065923</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1025340</v>
+        <v>1026538</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1105400</v>
+        <v>1106009</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6118274100405086</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5885332491043557</v>
+        <v>0.5892205911984195</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6344864787742869</v>
+        <v>0.6348359854190325</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>321285</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>296612</v>
+        <v>295001</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>347526</v>
+        <v>347255</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.425911847536531</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3932042038358678</v>
+        <v>0.3910677415623607</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4606975603409236</v>
+        <v>0.4603389639733381</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>134</v>
@@ -4754,19 +4754,19 @@
         <v>141165</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>118648</v>
+        <v>116469</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>162603</v>
+        <v>162442</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1429015251285495</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1201072034482158</v>
+        <v>0.1179016661376601</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.164602870201941</v>
+        <v>0.1644404340737805</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>456</v>
@@ -4775,19 +4775,19 @@
         <v>462450</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>426362</v>
+        <v>426402</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>500253</v>
+        <v>501531</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2654410818231089</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2447269715548709</v>
+        <v>0.2447499703319689</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2871395174617313</v>
+        <v>0.2878729406061635</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>127894</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>109253</v>
+        <v>108548</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>148096</v>
+        <v>151013</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1695427269380337</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1448318547299471</v>
+        <v>0.1438959966415518</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1963230248999553</v>
+        <v>0.2001909255844953</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -4825,19 +4825,19 @@
         <v>36421</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24774</v>
+        <v>25210</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50223</v>
+        <v>51350</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03686876553874404</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02507841427835257</v>
+        <v>0.02552043192256759</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05084105089667597</v>
+        <v>0.05198150367893265</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>163</v>
@@ -4846,19 +4846,19 @@
         <v>164315</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>140639</v>
+        <v>142095</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>187568</v>
+        <v>189135</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09431475647098699</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08072538396915402</v>
+        <v>0.08156108495517249</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1076617410108441</v>
+        <v>0.108561419024091</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>20255</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13118</v>
+        <v>12665</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32035</v>
+        <v>31296</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02685083215872765</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01739019142884956</v>
+        <v>0.01678888453954022</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04246708256170004</v>
+        <v>0.0414869101377169</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -4896,19 +4896,19 @@
         <v>7594</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3284</v>
+        <v>3085</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16256</v>
+        <v>16402</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007687642430689167</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003323993605303944</v>
+        <v>0.003122924634777524</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01645563858959247</v>
+        <v>0.01660360985219173</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -4917,19 +4917,19 @@
         <v>27849</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18519</v>
+        <v>17612</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41238</v>
+        <v>38431</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01598503863216901</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01062994822084576</v>
+        <v>0.01010928803373207</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02367006076562998</v>
+        <v>0.02205879624514528</v>
       </c>
     </row>
     <row r="8">
@@ -4946,19 +4946,19 @@
         <v>17056</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9815</v>
+        <v>10280</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26184</v>
+        <v>27775</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02261026067680463</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01301143776890315</v>
+        <v>0.01362792941525344</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03471137689190205</v>
+        <v>0.03682013554456084</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -4967,19 +4967,19 @@
         <v>4603</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11096</v>
+        <v>10638</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004659115261331042</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001208563596444705</v>
+        <v>0.001207470860016377</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01123253715766743</v>
+        <v>0.01076930062145771</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>21</v>
@@ -4988,19 +4988,19 @@
         <v>21658</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13530</v>
+        <v>13809</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32169</v>
+        <v>31805</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01243171303322655</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007766303576515545</v>
+        <v>0.007926139522843139</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01846441865456446</v>
+        <v>0.01825552927926129</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>570513</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>529577</v>
+        <v>529696</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>611795</v>
+        <v>612525</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2755023347489518</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2557344823839813</v>
+        <v>0.2557917863361011</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.295437781396368</v>
+        <v>0.2957901232771602</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>892</v>
@@ -5113,19 +5113,19 @@
         <v>931421</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>885539</v>
+        <v>878566</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>971421</v>
+        <v>976998</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4699009294759271</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4467533107269864</v>
+        <v>0.4432355731638289</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4900807267463037</v>
+        <v>0.4928943945777881</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1425</v>
@@ -5134,19 +5134,19 @@
         <v>1501934</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1437433</v>
+        <v>1439010</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1562400</v>
+        <v>1561516</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3705757319259655</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3546612298432975</v>
+        <v>0.3550503718824243</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3854947633327677</v>
+        <v>0.3852765425639514</v>
       </c>
     </row>
     <row r="11">
@@ -5163,19 +5163,19 @@
         <v>784644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>738506</v>
+        <v>741674</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>827032</v>
+        <v>829512</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3789069474671827</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3566269610527341</v>
+        <v>0.3581567792095258</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3993761438027749</v>
+        <v>0.4005737790021826</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>591</v>
@@ -5184,19 +5184,19 @@
         <v>608194</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>566037</v>
+        <v>569943</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>648290</v>
+        <v>655333</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3068333410488256</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2855650674647016</v>
+        <v>0.2875358198923019</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3270613603571309</v>
+        <v>0.3306148114852823</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1333</v>
@@ -5205,19 +5205,19 @@
         <v>1392838</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1333692</v>
+        <v>1332809</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1452015</v>
+        <v>1454677</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3436583253327688</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3290649100516881</v>
+        <v>0.3288472276050231</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.358259241950097</v>
+        <v>0.3589160410380531</v>
       </c>
     </row>
     <row r="12">
@@ -5234,19 +5234,19 @@
         <v>359664</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>325016</v>
+        <v>327436</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>397249</v>
+        <v>394862</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1736830479522222</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1569513698874319</v>
+        <v>0.1581197291733152</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1918327900597236</v>
+        <v>0.1906799387879866</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>107</v>
@@ -5255,19 +5255,19 @@
         <v>114135</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>94847</v>
+        <v>93813</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>136564</v>
+        <v>137012</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05758092255606351</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04785022953717686</v>
+        <v>0.04732859037957636</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06889626951452558</v>
+        <v>0.06912252755088621</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>445</v>
@@ -5276,19 +5276,19 @@
         <v>473799</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>431462</v>
+        <v>432843</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>517128</v>
+        <v>515058</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1169016525085608</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1064555799185272</v>
+        <v>0.106796326548272</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1275922350166354</v>
+        <v>0.1270815399689308</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>238762</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>210344</v>
+        <v>209233</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>270054</v>
+        <v>268686</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1152989838234116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1015759221838724</v>
+        <v>0.1010393597001275</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1304099829397207</v>
+        <v>0.1297490862902412</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>243</v>
@@ -5326,19 +5326,19 @@
         <v>256972</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>229161</v>
+        <v>228452</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>288222</v>
+        <v>286514</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.129642316755605</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1156116452665751</v>
+        <v>0.1152536970944664</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1454078764958468</v>
+        <v>0.1445459307539027</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>469</v>
@@ -5347,19 +5347,19 @@
         <v>495735</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>451879</v>
+        <v>450864</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>540234</v>
+        <v>538223</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1223137947618332</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1114931542079331</v>
+        <v>0.1112427436807377</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1332932076665183</v>
+        <v>0.1327971605715054</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>117226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>96599</v>
+        <v>97298</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>140737</v>
+        <v>141671</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05660868600823163</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04664799099026402</v>
+        <v>0.04698552215752191</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06796232667739389</v>
+        <v>0.06841325083691983</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>69</v>
@@ -5397,19 +5397,19 @@
         <v>71442</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57401</v>
+        <v>55284</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90347</v>
+        <v>89384</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03604249016357868</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02895861373783747</v>
+        <v>0.0278909455760042</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04557996563498879</v>
+        <v>0.04509415953576423</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>178</v>
@@ -5418,19 +5418,19 @@
         <v>188668</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>162153</v>
+        <v>162299</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>216461</v>
+        <v>218331</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04655049547087166</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04000837656302258</v>
+        <v>0.04004446481377778</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05340789244388842</v>
+        <v>0.05386929808382906</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>62386</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48448</v>
+        <v>48050</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80208</v>
+        <v>79370</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1147151152701847</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08908555793459494</v>
+        <v>0.08835489769211513</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1474873303006014</v>
+        <v>0.1459464574741419</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>84</v>
@@ -5543,19 +5543,19 @@
         <v>86301</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71191</v>
+        <v>70119</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105376</v>
+        <v>103120</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1571565057406343</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.129641460210448</v>
+        <v>0.1276881688026104</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.191892023450869</v>
+        <v>0.187785235814963</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>142</v>
@@ -5564,19 +5564,19 @@
         <v>148687</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>126465</v>
+        <v>126617</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>175606</v>
+        <v>175413</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1360388508571163</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.115707597152189</v>
+        <v>0.1158460621826683</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1606683211997927</v>
+        <v>0.1604912596009007</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>39396</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28226</v>
+        <v>28921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53991</v>
+        <v>53707</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07244150471585893</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05190239035227547</v>
+        <v>0.05317924474576047</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0992788138635564</v>
+        <v>0.09875611526755212</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>69</v>
@@ -5614,19 +5614,19 @@
         <v>72562</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57844</v>
+        <v>58456</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>90870</v>
+        <v>89581</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1321369970692438</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1053361739747145</v>
+        <v>0.1064498290293114</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1654775186000031</v>
+        <v>0.1631298244290831</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>104</v>
@@ -5635,19 +5635,19 @@
         <v>111958</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>92068</v>
+        <v>92567</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>134532</v>
+        <v>133471</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1024341812178593</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08423619585164878</v>
+        <v>0.08469301820244732</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1230883086344686</v>
+        <v>0.1221168806450708</v>
       </c>
     </row>
     <row r="18">
@@ -5664,19 +5664,19 @@
         <v>32438</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22225</v>
+        <v>21809</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45153</v>
+        <v>45474</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05964711919734243</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04086753522564378</v>
+        <v>0.04010241671963144</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08302673651169305</v>
+        <v>0.08361692272847786</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -5685,19 +5685,19 @@
         <v>13574</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7649</v>
+        <v>7427</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23881</v>
+        <v>22344</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02471907050104781</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01392820256101914</v>
+        <v>0.01352520757055979</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04348753511744867</v>
+        <v>0.04068976441644089</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>43</v>
@@ -5706,19 +5706,19 @@
         <v>46012</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>34752</v>
+        <v>33402</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>62709</v>
+        <v>60496</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0420982955911547</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03179595451946751</v>
+        <v>0.03056093563279292</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05737490856515123</v>
+        <v>0.05534998639391794</v>
       </c>
     </row>
     <row r="19">
@@ -5735,19 +5735,19 @@
         <v>116067</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>94732</v>
+        <v>96601</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>135662</v>
+        <v>137151</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2134239634774228</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1741930616458781</v>
+        <v>0.1776297191976781</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2494554315420896</v>
+        <v>0.2521940047805556</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>101</v>
@@ -5756,19 +5756,19 @@
         <v>105693</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>86967</v>
+        <v>87779</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>122774</v>
+        <v>123577</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1924699812095971</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1583697974293906</v>
+        <v>0.1598488070142917</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2235753333540292</v>
+        <v>0.2250367586085045</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>207</v>
@@ -5777,19 +5777,19 @@
         <v>221760</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>196188</v>
+        <v>197264</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>248376</v>
+        <v>251463</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2028960997005876</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1794991069972256</v>
+        <v>0.1804837940009056</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2272476219450485</v>
+        <v>0.2300724195565143</v>
       </c>
     </row>
     <row r="20">
@@ -5806,19 +5806,19 @@
         <v>293546</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>268860</v>
+        <v>270124</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>319397</v>
+        <v>318222</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5397722973391911</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4943801932519161</v>
+        <v>0.4967031786641439</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5873064077305691</v>
+        <v>0.5851468191788269</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>259</v>
@@ -5827,19 +5827,19 @@
         <v>271010</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>247537</v>
+        <v>247234</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>295187</v>
+        <v>294243</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.493517445479477</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4507716962499253</v>
+        <v>0.4502202423393102</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5375447122404184</v>
+        <v>0.5358255947851025</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>528</v>
@@ -5848,19 +5848,19 @@
         <v>564557</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>532569</v>
+        <v>531147</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>599278</v>
+        <v>600335</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5165325726332821</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4872661183092673</v>
+        <v>0.4859652565205818</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5483001484704002</v>
+        <v>0.549267367308189</v>
       </c>
     </row>
     <row r="21">
@@ -5952,19 +5952,19 @@
         <v>900755</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>853058</v>
+        <v>843191</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>956224</v>
+        <v>950592</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2673666561379758</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2532090189671845</v>
+        <v>0.2502801018411476</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2838312420342532</v>
+        <v>0.2821592857957021</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1687</v>
@@ -5973,19 +5973,19 @@
         <v>1815788</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1756762</v>
+        <v>1757997</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1877407</v>
+        <v>1876263</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5159729900691017</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4992000571053793</v>
+        <v>0.4995509863699739</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5334825659778379</v>
+        <v>0.533157382054592</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2549</v>
@@ -5994,19 +5994,19 @@
         <v>2716544</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2634174</v>
+        <v>2638272</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2792553</v>
+        <v>2803033</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3943796888812054</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3824214317491724</v>
+        <v>0.3830164193108044</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4054144296712316</v>
+        <v>0.4069358784888331</v>
       </c>
     </row>
     <row r="23">
@@ -6023,19 +6023,19 @@
         <v>1145325</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1090026</v>
+        <v>1087533</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1202283</v>
+        <v>1196347</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3399611126194746</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.323546804162371</v>
+        <v>0.3228069115046855</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3568677311755276</v>
+        <v>0.3551055412978236</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>794</v>
@@ -6044,19 +6044,19 @@
         <v>821921</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>772669</v>
+        <v>774348</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>876146</v>
+        <v>874092</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2335564351337993</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2195610340486873</v>
+        <v>0.2200382295796213</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2489648352044958</v>
+        <v>0.2483813505474066</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1893</v>
@@ -6065,19 +6065,19 @@
         <v>1967247</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1888756</v>
+        <v>1891725</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2044763</v>
+        <v>2049797</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2855989386079911</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2742038816210107</v>
+        <v>0.2746348694281662</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2968525744502636</v>
+        <v>0.2975833822886346</v>
       </c>
     </row>
     <row r="24">
@@ -6094,19 +6094,19 @@
         <v>519997</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>478372</v>
+        <v>478843</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>568335</v>
+        <v>563996</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1543479418015562</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1419927756051771</v>
+        <v>0.1421326185822049</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1686959708999797</v>
+        <v>0.167408129126762</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>151</v>
@@ -6115,19 +6115,19 @@
         <v>164130</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>139760</v>
+        <v>140304</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>190600</v>
+        <v>192542</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0466390156180112</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03971417981260159</v>
+        <v>0.0398686939274394</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05416064541716022</v>
+        <v>0.05471261063526393</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>651</v>
@@ -6136,19 +6136,19 @@
         <v>684127</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>631469</v>
+        <v>635014</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>736523</v>
+        <v>732836</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09931942683267074</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09167471088959497</v>
+        <v>0.09218942473464398</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1069261354475907</v>
+        <v>0.1063908655839284</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>375084</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>337907</v>
+        <v>335415</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>414584</v>
+        <v>413341</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1113343085727327</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.100299373336937</v>
+        <v>0.09955961814381541</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1230588442813878</v>
+        <v>0.1226897784967429</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>350</v>
@@ -6186,19 +6186,19 @@
         <v>370260</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>334581</v>
+        <v>332613</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>407480</v>
+        <v>407580</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.105212690414108</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09507439494379302</v>
+        <v>0.09451506153122938</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1157893120336081</v>
+        <v>0.1158175619121741</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>702</v>
@@ -6207,19 +6207,19 @@
         <v>745344</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>696272</v>
+        <v>694797</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>799029</v>
+        <v>802860</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.108206772458394</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1010826594459359</v>
+        <v>0.1008685845391139</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1160006807720988</v>
+        <v>0.1165568483545528</v>
       </c>
     </row>
     <row r="26">
@@ -6236,19 +6236,19 @@
         <v>427828</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>389140</v>
+        <v>388873</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>467523</v>
+        <v>467114</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1269899808682605</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1155064720327617</v>
+        <v>0.1154271657819796</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1387725289427791</v>
+        <v>0.1386510213138685</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>332</v>
@@ -6257,19 +6257,19 @@
         <v>347055</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>315650</v>
+        <v>312042</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>388342</v>
+        <v>382808</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09861886876497981</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08969484044709884</v>
+        <v>0.08866954659954486</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1103510706620245</v>
+        <v>0.1087782829182611</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>727</v>
@@ -6278,19 +6278,19 @@
         <v>774883</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>720675</v>
+        <v>722326</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>831641</v>
+        <v>826972</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1124951732197388</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1046254759171178</v>
+        <v>0.1048651690849752</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.120735091734081</v>
+        <v>0.1200573222468703</v>
       </c>
     </row>
     <row r="27">
@@ -6621,19 +6621,19 @@
         <v>201308</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>180514</v>
+        <v>178134</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>221896</v>
+        <v>223915</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3518173987658096</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3154777914725153</v>
+        <v>0.3113179063876947</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3877993852431706</v>
+        <v>0.3913277203733589</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1097</v>
@@ -6642,19 +6642,19 @@
         <v>629891</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>611188</v>
+        <v>610699</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>648035</v>
+        <v>646910</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7763865070244573</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7533340920307094</v>
+        <v>0.7527305875202499</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7987503893571023</v>
+        <v>0.7973642054820423</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1329</v>
@@ -6663,19 +6663,19 @@
         <v>831199</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>800655</v>
+        <v>799958</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>865053</v>
+        <v>864079</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6007920340010809</v>
+        <v>0.6007920340010808</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5787150830106976</v>
+        <v>0.5782110585431971</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6252616559908617</v>
+        <v>0.6245580004651573</v>
       </c>
     </row>
     <row r="5">
@@ -6692,19 +6692,19 @@
         <v>264709</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>243433</v>
+        <v>241892</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288491</v>
+        <v>286967</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4626219161632525</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4254380753028907</v>
+        <v>0.4227450736490472</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5041831023708337</v>
+        <v>0.5015208009882058</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>209</v>
@@ -6713,19 +6713,19 @@
         <v>119265</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>105787</v>
+        <v>103442</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>134875</v>
+        <v>136515</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1470027262935256</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1303903516151739</v>
+        <v>0.1274997943765992</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1662427133553175</v>
+        <v>0.1682647604064357</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>530</v>
@@ -6734,19 +6734,19 @@
         <v>383974</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>354964</v>
+        <v>350099</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>414287</v>
+        <v>411996</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2775373889507937</v>
+        <v>0.2775373889507936</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2565690010874729</v>
+        <v>0.2530523766020322</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2994474887857116</v>
+        <v>0.2977911567396462</v>
       </c>
     </row>
     <row r="6">
@@ -6763,19 +6763,19 @@
         <v>76822</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62097</v>
+        <v>62415</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>93089</v>
+        <v>94722</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1342585869737215</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.108524946112176</v>
+        <v>0.1090804217817417</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.16268714173443</v>
+        <v>0.1655411640982845</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>74</v>
@@ -6784,19 +6784,19 @@
         <v>41992</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33895</v>
+        <v>33981</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>52872</v>
+        <v>53597</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05175871852889927</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04177749793602809</v>
+        <v>0.04188461153622461</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06516908118368919</v>
+        <v>0.06606207053833868</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>168</v>
@@ -6805,19 +6805,19 @@
         <v>118814</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>100930</v>
+        <v>101190</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>136813</v>
+        <v>140232</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.08587924365019767</v>
+        <v>0.08587924365019765</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07295268648713983</v>
+        <v>0.0731400943511501</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09888878038829403</v>
+        <v>0.1013599164090618</v>
       </c>
     </row>
     <row r="7">
@@ -6834,19 +6834,19 @@
         <v>17681</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11599</v>
+        <v>11067</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26639</v>
+        <v>27051</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0309009729355219</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02027179017194581</v>
+        <v>0.01934065227960885</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04655509265563626</v>
+        <v>0.04727580335595413</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -6855,19 +6855,19 @@
         <v>10261</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6208</v>
+        <v>6170</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16417</v>
+        <v>16117</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01264775930421557</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007652389475734036</v>
+        <v>0.007604669386238431</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02023516970651699</v>
+        <v>0.01986568502610641</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -6876,19 +6876,19 @@
         <v>27943</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19829</v>
+        <v>19871</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37687</v>
+        <v>38181</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02019697418166672</v>
+        <v>0.02019697418166671</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01433228933938386</v>
+        <v>0.01436245740087548</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02724015722268616</v>
+        <v>0.02759759351260063</v>
       </c>
     </row>
     <row r="8">
@@ -6905,19 +6905,19 @@
         <v>11673</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6341</v>
+        <v>6720</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19062</v>
+        <v>18816</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0204011251616943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01108149438360007</v>
+        <v>0.01174388249689884</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03331390180059497</v>
+        <v>0.03288352948278121</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -6926,19 +6926,19 @@
         <v>9901</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5275</v>
+        <v>5486</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16500</v>
+        <v>16164</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01220428884890212</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006501515124334966</v>
+        <v>0.006762313874040129</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02033696501442757</v>
+        <v>0.01992331843733512</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -6947,19 +6947,19 @@
         <v>21575</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14700</v>
+        <v>14317</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32906</v>
+        <v>30888</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.01559435921626099</v>
+        <v>0.01559435921626098</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01062507953217012</v>
+        <v>0.01034846851438193</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02378432970870859</v>
+        <v>0.02232591810003805</v>
       </c>
     </row>
     <row r="9">
@@ -7051,19 +7051,19 @@
         <v>556067</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>505375</v>
+        <v>503416</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>613438</v>
+        <v>610393</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2551882601712926</v>
+        <v>0.2551882601712927</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2319245561288837</v>
+        <v>0.2310255110654036</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2815165040644513</v>
+        <v>0.280118965462803</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1271</v>
@@ -7072,19 +7072,19 @@
         <v>971458</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>924767</v>
+        <v>928049</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1009936</v>
+        <v>1012613</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4597917145359143</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4376929702230856</v>
+        <v>0.4392463371664175</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4780033900579375</v>
+        <v>0.4792704226479477</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1665</v>
@@ -7093,19 +7093,19 @@
         <v>1527526</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1457571</v>
+        <v>1459182</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1598660</v>
+        <v>1587974</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3559114152067634</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3396121550831809</v>
+        <v>0.3399873799709998</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3724857106822782</v>
+        <v>0.3699958971896735</v>
       </c>
     </row>
     <row r="11">
@@ -7122,19 +7122,19 @@
         <v>798827</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>749362</v>
+        <v>750567</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>848296</v>
+        <v>850585</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3665943177377458</v>
+        <v>0.3665943177377459</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3438941752497112</v>
+        <v>0.3444470192906113</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3892966212769634</v>
+        <v>0.3903471823586048</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>920</v>
@@ -7143,19 +7143,19 @@
         <v>665702</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>631194</v>
+        <v>624444</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>707665</v>
+        <v>706344</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3150773699001771</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2987443808430444</v>
+        <v>0.2955497086367015</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3349385285434998</v>
+        <v>0.3343129136083744</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1657</v>
@@ -7164,19 +7164,19 @@
         <v>1464529</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1396327</v>
+        <v>1399425</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1528903</v>
+        <v>1524911</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3412333112967181</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3253423731794932</v>
+        <v>0.3260641555851111</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3562323612077808</v>
+        <v>0.3553021778946414</v>
       </c>
     </row>
     <row r="12">
@@ -7193,19 +7193,19 @@
         <v>359856</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>325450</v>
+        <v>322828</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>397209</v>
+        <v>399003</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1651435461277993</v>
+        <v>0.1651435461277994</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1493544045145183</v>
+        <v>0.1481508773480094</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1822857395129013</v>
+        <v>0.183108636693531</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>194</v>
@@ -7214,19 +7214,19 @@
         <v>129932</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>111311</v>
+        <v>112711</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>149699</v>
+        <v>152043</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06149681400894063</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05268380175489065</v>
+        <v>0.05334615657243147</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07085252731725482</v>
+        <v>0.07196212794612772</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>557</v>
@@ -7235,19 +7235,19 @@
         <v>489788</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>448887</v>
+        <v>446964</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>534346</v>
+        <v>531821</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1141198432262669</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1045899937990001</v>
+        <v>0.1041419681463699</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1245019538184543</v>
+        <v>0.1239136193182279</v>
       </c>
     </row>
     <row r="13">
@@ -7264,19 +7264,19 @@
         <v>329968</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>294269</v>
+        <v>297783</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>365049</v>
+        <v>366376</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1514277341871245</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1350445375613801</v>
+        <v>0.1366574742557476</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1675268573632116</v>
+        <v>0.1681359035441033</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>351</v>
@@ -7285,19 +7285,19 @@
         <v>253282</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>228097</v>
+        <v>228531</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>280303</v>
+        <v>280427</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1198785317428348</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1079584920124513</v>
+        <v>0.108164087753415</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1326675917388734</v>
+        <v>0.1327260728929095</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>679</v>
@@ -7306,19 +7306,19 @@
         <v>583250</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>541844</v>
+        <v>541560</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>626625</v>
+        <v>629330</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1358965437734053</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.12624900955894</v>
+        <v>0.1261827787994711</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1460028075837985</v>
+        <v>0.1466330203290731</v>
       </c>
     </row>
     <row r="14">
@@ -7335,19 +7335,19 @@
         <v>134330</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110365</v>
+        <v>111342</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>161456</v>
+        <v>159460</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06164614177603759</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05064807994203567</v>
+        <v>0.05109643634364128</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07409478895947641</v>
+        <v>0.07317895196252851</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>122</v>
@@ -7356,19 +7356,19 @@
         <v>92448</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76210</v>
+        <v>77209</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>111605</v>
+        <v>112547</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04375556981213309</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03607010944985524</v>
+        <v>0.03654314090606992</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05282292062925809</v>
+        <v>0.05326868865381261</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>254</v>
@@ -7377,19 +7377,19 @@
         <v>226778</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>199846</v>
+        <v>198670</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>259275</v>
+        <v>260867</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.05283888649684624</v>
+        <v>0.05283888649684625</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04656376549907122</v>
+        <v>0.04628988125498301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06041075619798559</v>
+        <v>0.06078173634964543</v>
       </c>
     </row>
     <row r="15">
@@ -7481,19 +7481,19 @@
         <v>45510</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31745</v>
+        <v>31969</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65311</v>
+        <v>64290</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06669776600835307</v>
+        <v>0.06669776600835309</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04652349007029004</v>
+        <v>0.04685176136536003</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09571657282749331</v>
+        <v>0.09421994855332322</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -7502,19 +7502,19 @@
         <v>71405</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>56069</v>
+        <v>56040</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88835</v>
+        <v>91282</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1009032000463092</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07923182949629973</v>
+        <v>0.07919024402435816</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1255323114184348</v>
+        <v>0.1289914447374336</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -7523,19 +7523,19 @@
         <v>116916</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93559</v>
+        <v>95162</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>142325</v>
+        <v>141755</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08411210177690739</v>
+        <v>0.08411210177690741</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06730883737307936</v>
+        <v>0.06846198223460642</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1023922349261473</v>
+        <v>0.1019819631398688</v>
       </c>
     </row>
     <row r="17">
@@ -7552,19 +7552,19 @@
         <v>65028</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49510</v>
+        <v>48878</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>85022</v>
+        <v>85537</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09530172316993335</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0725602480540232</v>
+        <v>0.07163356612398206</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1246044751296651</v>
+        <v>0.1253590338252055</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>99</v>
@@ -7573,19 +7573,19 @@
         <v>75023</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>61336</v>
+        <v>60491</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>89585</v>
+        <v>90255</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1060153115361436</v>
+        <v>0.1060153115361435</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08667379047554186</v>
+        <v>0.08548044225245152</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1265929529191129</v>
+        <v>0.1275402087767077</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>156</v>
@@ -7594,19 +7594,19 @@
         <v>140051</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>115590</v>
+        <v>119532</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>166014</v>
+        <v>165078</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1007561204124368</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08315836924444597</v>
+        <v>0.08599457325264866</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1194342750562883</v>
+        <v>0.1187613848707327</v>
       </c>
     </row>
     <row r="18">
@@ -7623,19 +7623,19 @@
         <v>34934</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23078</v>
+        <v>23772</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>51847</v>
+        <v>51178</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05119755176375724</v>
+        <v>0.05119755176375725</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03382145461937608</v>
+        <v>0.03483914544626313</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07598451038950518</v>
+        <v>0.07500350581760941</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -7644,19 +7644,19 @@
         <v>15573</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9798</v>
+        <v>9886</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24628</v>
+        <v>24451</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02200623306379086</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01384516902437863</v>
+        <v>0.01397017148747015</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03480212589061945</v>
+        <v>0.03455120070405344</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>52</v>
@@ -7665,19 +7665,19 @@
         <v>50507</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>38172</v>
+        <v>37821</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>69168</v>
+        <v>68521</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.03633595331703077</v>
+        <v>0.03633595331703078</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02746162323610223</v>
+        <v>0.02720902225769212</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04976141847295306</v>
+        <v>0.04929561026820426</v>
       </c>
     </row>
     <row r="19">
@@ -7694,19 +7694,19 @@
         <v>133446</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>111306</v>
+        <v>112202</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>155370</v>
+        <v>157073</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1955719614281002</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1631256298260262</v>
+        <v>0.1644381598764519</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.227703456484318</v>
+        <v>0.2301981970401664</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>222</v>
@@ -7715,19 +7715,19 @@
         <v>159600</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>140397</v>
+        <v>140398</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>180079</v>
+        <v>179861</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2255304565230745</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1983952263353464</v>
+        <v>0.1983961821030483</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2544701674842942</v>
+        <v>0.2541625668758784</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>350</v>
@@ -7736,19 +7736,19 @@
         <v>293045</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>266081</v>
+        <v>263877</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>322913</v>
+        <v>322428</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2108241372117946</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1914256747268523</v>
+        <v>0.1898396611906966</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2323119497211597</v>
+        <v>0.2319628937126883</v>
       </c>
     </row>
     <row r="20">
@@ -7765,19 +7765,19 @@
         <v>403418</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>376183</v>
+        <v>378206</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>432733</v>
+        <v>432528</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5912309976298563</v>
+        <v>0.5912309976298562</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5513157154696937</v>
+        <v>0.5542812950485215</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6341928075130093</v>
+        <v>0.6338932272329172</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>549</v>
@@ -7786,19 +7786,19 @@
         <v>386062</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>363190</v>
+        <v>359788</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>409582</v>
+        <v>409313</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5455447988306817</v>
+        <v>0.5455447988306816</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5132249077594062</v>
+        <v>0.5084165830360287</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5787805054017603</v>
+        <v>0.5784005492035104</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>954</v>
@@ -7807,19 +7807,19 @@
         <v>789480</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>751671</v>
+        <v>752434</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>823504</v>
+        <v>825373</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5679716872818303</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5407710730370263</v>
+        <v>0.5413195122144148</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5924492610991363</v>
+        <v>0.5937936020953455</v>
       </c>
     </row>
     <row r="21">
@@ -7911,19 +7911,19 @@
         <v>802886</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>739765</v>
+        <v>733266</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>865003</v>
+        <v>862674</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.233833483112685</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2154503170969898</v>
+        <v>0.2135575067090356</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2519246600760772</v>
+        <v>0.2512464050282208</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2445</v>
@@ -7932,19 +7932,19 @@
         <v>1672755</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1613846</v>
+        <v>1613610</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1727556</v>
+        <v>1723722</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.460586056822419</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.44436569087776</v>
+        <v>0.4443008537479488</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4756752728002964</v>
+        <v>0.474619711446303</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3102</v>
@@ -7953,19 +7953,19 @@
         <v>2475640</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2393528</v>
+        <v>2392893</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2557648</v>
+        <v>2564822</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3503905199983682</v>
+        <v>0.3503905199983683</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3387688582748961</v>
+        <v>0.3386788847261901</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3619975858077685</v>
+        <v>0.3630129006393426</v>
       </c>
     </row>
     <row r="23">
@@ -7982,19 +7982,19 @@
         <v>1128564</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1066137</v>
+        <v>1074343</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1185548</v>
+        <v>1200380</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3286844876144816</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3105032282707088</v>
+        <v>0.3128932259425232</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3452807406040807</v>
+        <v>0.3496004026732877</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1228</v>
@@ -8003,19 +8003,19 @@
         <v>859991</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>814318</v>
+        <v>819098</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>904323</v>
+        <v>910184</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.236794828089034</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2242190532369164</v>
+        <v>0.2255353754422976</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2490017096718984</v>
+        <v>0.2506153577102794</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2343</v>
@@ -8024,19 +8024,19 @@
         <v>1988554</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1908047</v>
+        <v>1910214</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2059473</v>
+        <v>2068636</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2814506844452578</v>
+        <v>0.2814506844452579</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2700560978066222</v>
+        <v>0.270362800335917</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2914882667007718</v>
+        <v>0.292785076122592</v>
       </c>
     </row>
     <row r="24">
@@ -8053,19 +8053,19 @@
         <v>471612</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>431386</v>
+        <v>432999</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>515322</v>
+        <v>516781</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1373528115578503</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1256373932084948</v>
+        <v>0.1261071280554792</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1500830233856278</v>
+        <v>0.1505080653923359</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>289</v>
@@ -8074,19 +8074,19 @@
         <v>187497</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>165595</v>
+        <v>166119</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>212386</v>
+        <v>210258</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0516265922285991</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04559597539905084</v>
+        <v>0.04574021233428165</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05847952167554681</v>
+        <v>0.05789360018988774</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>777</v>
@@ -8095,19 +8095,19 @@
         <v>659109</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>611990</v>
+        <v>617540</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>706545</v>
+        <v>714167</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.09328718555432602</v>
+        <v>0.09328718555432605</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08661821536940663</v>
+        <v>0.08740372232836127</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.100001110529987</v>
+        <v>0.1010799394172826</v>
       </c>
     </row>
     <row r="25">
@@ -8124,19 +8124,19 @@
         <v>481095</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>438524</v>
+        <v>439500</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>526262</v>
+        <v>521256</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1401149119727167</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1277162040268918</v>
+        <v>0.1280006710780273</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1532691706551237</v>
+        <v>0.1518114091018294</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>590</v>
@@ -8145,19 +8145,19 @@
         <v>423143</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>392796</v>
+        <v>390713</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>459384</v>
+        <v>460330</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1165106113537951</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1081548748719384</v>
+        <v>0.1075813213168059</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.126489609340493</v>
+        <v>0.126750049346611</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1069</v>
@@ -8166,19 +8166,19 @@
         <v>904238</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>849352</v>
+        <v>852424</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>959904</v>
+        <v>962839</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1279816545949095</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1202133380979021</v>
+        <v>0.1206481926518875</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1358603152080539</v>
+        <v>0.136275704727843</v>
       </c>
     </row>
     <row r="26">
@@ -8195,19 +8195,19 @@
         <v>549422</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>502466</v>
+        <v>504774</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>597137</v>
+        <v>597983</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1600143057422664</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1463389462483264</v>
+        <v>0.1470109474586621</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1739108735701805</v>
+        <v>0.1741575289318137</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>686</v>
@@ -8216,19 +8216,19 @@
         <v>488411</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>451829</v>
+        <v>454919</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>526817</v>
+        <v>526608</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1344819115061529</v>
+        <v>0.1344819115061528</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1244093439190995</v>
+        <v>0.1252599955459436</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1450568810776698</v>
+        <v>0.1449992610137122</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1238</v>
@@ -8237,19 +8237,19 @@
         <v>1037832</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>984940</v>
+        <v>980584</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1100832</v>
+        <v>1097964</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1468899554071384</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1394038715669544</v>
+        <v>0.1387872317624685</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1558066131590543</v>
+        <v>0.1554006624779966</v>
       </c>
     </row>
     <row r="27">
